--- a/all/Are_you_local.xlsx
+++ b/all/Are_you_local.xlsx
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/all/Are_you_local.xlsx
+++ b/all/Are_you_local.xlsx
@@ -464,7 +464,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
